--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,22 @@
   </si>
   <si>
     <t>16:10 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学（修改为ACL代码走读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL代码走读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开周会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,6 +421,96 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,96 +542,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -808,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,7 +835,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -834,10 +850,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="64"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -862,27 +878,31 @@
         <v>11</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="44"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="75"/>
       <c r="B3" s="75"/>
       <c r="C3" s="32" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="45"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="75"/>
@@ -895,11 +915,11 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="45"/>
+      <c r="G4" s="34"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="75"/>
-      <c r="B5" s="65"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -908,7 +928,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="45"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="75"/>
@@ -923,7 +943,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="45"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="75"/>
@@ -936,11 +956,11 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="45"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
@@ -949,227 +969,227 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="55"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="48"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="21"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="48"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="21"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="36"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="28"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="58"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="43"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="59"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="40"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="23"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="71"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="72"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="41"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="23"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="72"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="41"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="25"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="72"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="41"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="24"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="72"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="42"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="24"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="73"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="39"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="26"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="69"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="70"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="22"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="70"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="70"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="15"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="59"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="61"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="66"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="62"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="66"/>
-      <c r="B28" s="68"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="62"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="66"/>
-      <c r="B29" s="62"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="62"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="66"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="62"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="66"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="62"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="67"/>
-      <c r="B32" s="63"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="63"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="50"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -1177,8 +1197,8 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="51"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -1186,8 +1206,8 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="51"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
@@ -1195,8 +1215,8 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="51"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1204,8 +1224,8 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="51"/>
-      <c r="B37" s="49"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1213,8 +1233,8 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="51"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1222,8 +1242,8 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="51"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1231,34 +1251,45 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="51"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="52"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="51"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="53"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="51"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="54"/>
+      <c r="F42" s="43"/>
       <c r="G42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B40:B42"/>
@@ -1274,17 +1305,6 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="G14:G19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聚合口移植验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>14:00 - 16:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,22 @@
   </si>
   <si>
     <t>开周会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚合口移植验证（修改诶ACL代码走读）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟喻波聊天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,96 +433,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,6 +470,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -824,7 +836,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -835,7 +847,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -845,15 +857,15 @@
     <col min="3" max="3" width="49.5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -871,325 +883,333 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="74">
+      <c r="A2" s="44">
         <v>43130</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="33"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="34"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="48"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="75"/>
-      <c r="B5" s="54"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="48"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="75"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="34"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="35"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="36"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="20"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="44"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="21"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="21"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="66"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="28"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="47"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="73"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="48"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="70"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="23"/>
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="60"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="71"/>
-      <c r="B15" s="65"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="24"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="61"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="71"/>
-      <c r="B16" s="65"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="23"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="61"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="71"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="25"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="61"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="71"/>
-      <c r="B18" s="65"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="24"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="72"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="24"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="62"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="69"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="26"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="67"/>
-      <c r="B22" s="68"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="67"/>
-      <c r="B23" s="66"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
       <c r="E23" s="22"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="67"/>
-      <c r="B24" s="67"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="59"/>
+      <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="15"/>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="48"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
-      <c r="G26" s="50"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="55"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="30"/>
       <c r="D27" s="31"/>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
-      <c r="G27" s="51"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="55"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="30"/>
       <c r="D28" s="31"/>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="51"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="55"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
-      <c r="G29" s="51"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="55"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="51"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="55"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="51"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="56"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="52"/>
+      <c r="G32" s="66"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="39"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="63"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -1197,8 +1217,8 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="40"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
@@ -1206,8 +1226,8 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="40"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15"/>
@@ -1215,8 +1235,8 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="40"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
@@ -1224,8 +1244,8 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="40"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -1233,8 +1253,8 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="40"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -1242,8 +1262,8 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="40"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
@@ -1251,45 +1271,34 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="40"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="41"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="40"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="42"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="40"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="43"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A8"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B40:B42"/>
@@ -1305,6 +1314,17 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="G20:G25"/>
     <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,14 +125,54 @@
   </si>
   <si>
     <t>跟喻波聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有理函数的积分，看完例题就好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:00 - 23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分的概念与性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23:40 - 00:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一会儿英文小说《了不起的盖茨比》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00:45 - 01:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +473,9 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,7 +518,7 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -836,21 +879,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -861,11 +904,11 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -882,11 +925,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="44">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="45">
         <v>43130</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="32" t="s">
@@ -901,11 +944,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="G2" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="32" t="s">
         <v>19</v>
       </c>
@@ -916,11 +961,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -933,11 +978,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -948,11 +993,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44" t="s">
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -961,244 +1006,268 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="50"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="58"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="51"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="59"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="51"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="60"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="61"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="43"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="62"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="40"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="74"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="41"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="74"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="52"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="60"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="52"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="61"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="62"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="44"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="63"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="74"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="41"/>
-      <c r="B18" s="35"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="24"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="74"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="42"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="75"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="39"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="71"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="72"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="22"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="75"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="75"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="76"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="72"/>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="72"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="73"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="62"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="64"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="68"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="65"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="68"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="65"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="G25" s="73"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="73"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="68"/>
-      <c r="B29" s="65"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="65"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="68"/>
-      <c r="B30" s="65"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="68"/>
-      <c r="B31" s="65"/>
+      <c r="G30" s="66"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="69"/>
+      <c r="B31" s="71"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="66"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="69"/>
       <c r="B32" s="66"/>
       <c r="C32" s="30"/>
@@ -1207,124 +1276,152 @@
       <c r="F32" s="30"/>
       <c r="G32" s="66"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="53"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="54"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="54"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="66"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="69"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="66"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
-      <c r="B36" s="52"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="54"/>
-      <c r="B37" s="52"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="54"/>
-      <c r="B38" s="52"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="54"/>
-      <c r="B39" s="52"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="54"/>
-      <c r="B40" s="52"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="55"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="54"/>
-      <c r="B41" s="52"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="55"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="56"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="54"/>
-      <c r="B42" s="52"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="55"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="57"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="55"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="15"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="55"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="55"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="G26:G32"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="G17:G22"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,14 +165,70 @@
   </si>
   <si>
     <t>00:45 - 01:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女朋友不让学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搞清楚mac acl配置的名字查重复，acl group的资源总量如何扩大，并写出总结来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习数学定积分第一节内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:10 - 17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解下idb是怎么用的，看一下hsl中acl的代码是否可以改进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:10 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把今天剩余单词背了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:05 - 18:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,12 +502,6 @@
     <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -473,7 +523,94 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -515,95 +652,26 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -879,36 +947,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="69.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -925,14 +993,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+    <row r="2" spans="1:7">
+      <c r="A2" s="72">
         <v>43130</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -944,14 +1012,14 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G2" s="33">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="32" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -961,11 +1029,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="49"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -978,11 +1046,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="73"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -993,11 +1061,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="73"/>
+      <c r="B6" s="72" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1010,11 +1078,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1027,11 +1095,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="73"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1044,11 +1112,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45" t="s">
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="73"/>
+      <c r="B9" s="72" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1057,371 +1125,427 @@
       <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="G9" s="33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="E10" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="5"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="75"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="76">
+        <v>43131</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="59"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="77"/>
+      <c r="B13" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="60"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="77"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="62"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="63"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="74"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="75"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="11"/>
+      <c r="G14" s="44"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="77"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="78"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="64"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="71"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="68"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="75"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
+      <c r="G19" s="58"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="75"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="24"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="75"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
+      <c r="G21" s="59"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="76"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="72"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="15"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="59"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="70"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="67"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="22"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="73"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="73"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="15"/>
+      <c r="G27" s="57"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="65"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="63"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="65"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="69"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="69"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="66"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="69"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="66"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="69"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="66"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="69"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="66"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="67"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="53"/>
+      <c r="G28" s="57"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="48"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="53"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="49"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="53"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="49"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="53"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="49"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="53"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="53"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="49"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="54"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="50"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="37"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="15"/>
-      <c r="D38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="53"/>
+    <row r="39" spans="1:7">
+      <c r="A39" s="38"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="53"/>
+    <row r="40" spans="1:7">
+      <c r="A40" s="38"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
-      <c r="B41" s="53"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="38"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="53"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="38"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="53"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="38"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="56"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="53"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="38"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="57"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="53"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="38"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="58"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="15"/>
     </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="38"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="38"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A36:A45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="G23:G28"/>
-    <mergeCell ref="G17:G22"/>
+  <mergeCells count="31">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A12:A16"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,26 @@
   </si>
   <si>
     <t>18:05 - 18:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定积分：第二节和第三节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个读的下去的英文小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,31 +549,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,52 +576,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -652,26 +624,77 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -947,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -955,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -973,10 +996,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="62"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -994,10 +1017,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="72">
+      <c r="A2" s="56">
         <v>43130</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -1012,13 +1035,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
       <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
@@ -1029,11 +1052,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="34"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1046,11 +1069,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="34"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="73"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1061,11 +1084,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="73"/>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="56" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1078,11 +1101,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="34"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1095,11 +1118,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="73"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1112,11 +1135,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="35"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="73"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="56" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1129,42 +1152,42 @@
         <v>37</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="33">
+      <c r="G9" s="36">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="74"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="75"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="38"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="76">
+      <c r="A12" s="42">
         <v>43131</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -1178,11 +1201,11 @@
         <v>37</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77"/>
-      <c r="B13" s="42" t="s">
+      <c r="A13" s="43"/>
+      <c r="B13" s="39" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1193,11 +1216,11 @@
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="43"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="77"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
@@ -1206,11 +1229,11 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="44"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="77"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1222,8 +1245,8 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="78"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1235,242 +1258,252 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="64"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="45"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="71"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="46"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="68"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="58"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="59"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="69"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="59"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="69"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="59"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="70"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="60"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="67"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="56"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="80"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="57"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="81"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="24"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="57"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="65"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="57"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="57"/>
+      <c r="G29" s="78"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="46"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="78"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="53"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="49"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="53"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="73"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="49"/>
+      <c r="G33" s="70"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="53"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="49"/>
+      <c r="G34" s="71"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="53"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="76"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+      <c r="D35" s="29"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="49"/>
+      <c r="G35" s="71"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="53"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="49"/>
+      <c r="G36" s="71"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="54"/>
-      <c r="B37" s="50"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="50"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="37"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="71"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="38"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="38"/>
-      <c r="B40" s="36"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="15"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="38"/>
-      <c r="B41" s="36"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="38"/>
-      <c r="B42" s="36"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="38"/>
-      <c r="B43" s="36"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1478,8 +1511,8 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="38"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1487,64 +1520,83 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="38"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="61"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="39"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="38"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="40"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="38"/>
-      <c r="B47" s="36"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="61"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="41"/>
+      <c r="F47" s="64"/>
       <c r="G47" s="15"/>
     </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="63"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="63"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A17:A18"/>
+  <mergeCells count="32">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="G27:G32"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="G2:G8"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="G19:G24"/>
     <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,22 +168,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女朋友不让学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背单词30个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16:10 - 17:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>了解下idb是怎么用的，看一下hsl中acl的代码是否可以改进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,14 +225,38 @@
   </si>
   <si>
     <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20 - 22:00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看ACL去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究understand去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:30 - 19:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公交车上背的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,7 +557,121 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,133 +689,25 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -970,36 +984,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="69.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1016,11 +1030,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="56">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="63">
         <v>43130</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="63" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -1035,13 +1049,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="74">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
@@ -1052,11 +1066,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="59"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1069,11 +1083,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="59"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
+      <c r="G4" s="79"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="64"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1084,11 +1098,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="57"/>
-      <c r="B6" s="56" t="s">
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="64"/>
+      <c r="B6" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1101,11 +1115,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1118,11 +1132,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="59"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="64"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1135,11 +1149,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="60"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="57"/>
-      <c r="B9" s="56" t="s">
+      <c r="G8" s="80"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="64"/>
+      <c r="B9" s="63" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1149,427 +1163,461 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="36">
+      <c r="G9" s="74">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
+      <c r="E10" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="75"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="42">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="76"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="58">
         <v>43131</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="6" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="43"/>
+      <c r="G12" s="81">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
       <c r="B13" s="39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="43"/>
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="82"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="59"/>
       <c r="B14" s="40"/>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="43"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="82"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
       <c r="B15" s="40"/>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="82"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="59"/>
       <c r="B16" s="41"/>
       <c r="C16" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="83"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="59"/>
+      <c r="B17" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="43"/>
-      <c r="B17" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="44"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="60"/>
       <c r="B18" s="41"/>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="48"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
       <c r="B19" s="26"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="67"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="55"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="62"/>
       <c r="B20" s="27"/>
       <c r="C20" s="25"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="68"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="52"/>
-      <c r="B21" s="47"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="69"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="21"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="79"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="53"/>
-      <c r="B22" s="47"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="22"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="53"/>
-      <c r="B23" s="47"/>
+      <c r="G22" s="56"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="70"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="21"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="80"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="53"/>
-      <c r="B24" s="47"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="70"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="23"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="80"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="53"/>
-      <c r="B25" s="47"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="70"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="22"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="80"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="54"/>
-      <c r="B26" s="47"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="71"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="22"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="81"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="24"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
+      <c r="G28" s="54"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="66"/>
+      <c r="B29" s="67"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="78"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="49"/>
-      <c r="B30" s="48"/>
+      <c r="G29" s="54"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="66"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="78"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="15"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="78"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="G31" s="54"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
       <c r="C32" s="15"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="68"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="70"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="74"/>
-      <c r="B34" s="58"/>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="50"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="71"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="74"/>
-      <c r="B35" s="76"/>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="50"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="71"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="74"/>
-      <c r="B36" s="71"/>
+      <c r="G35" s="46"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="50"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="71"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="74"/>
-      <c r="B37" s="71"/>
+      <c r="G36" s="46"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="50"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="71"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="74"/>
-      <c r="B38" s="71"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="50"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="71"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="75"/>
-      <c r="B39" s="72"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="51"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="72"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="62"/>
-      <c r="B40" s="69"/>
+      <c r="G39" s="47"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="63"/>
-      <c r="B41" s="61"/>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="63"/>
-      <c r="B42" s="61"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="63"/>
-      <c r="B43" s="61"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="63"/>
-      <c r="B44" s="61"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="63"/>
-      <c r="B45" s="61"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="35"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="63"/>
-      <c r="B46" s="61"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="35"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="63"/>
-      <c r="B47" s="61"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="35"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="64"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="63"/>
-      <c r="B48" s="61"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="35"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="65"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="63"/>
-      <c r="B49" s="61"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="35"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="66"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G12:G14"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B42:B46"/>
@@ -1582,22 +1630,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +249,14 @@
   </si>
   <si>
     <t>公交车上背的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二节看完了，第三节例题太多了，搞不完，1点了睡了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,126 +562,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -689,6 +577,15 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,6 +605,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,7 +1000,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1005,15 +1010,15 @@
     <col min="3" max="3" width="69.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="46.75" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1031,10 +1036,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="63">
+      <c r="A2" s="55">
         <v>43130</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="30" t="s">
@@ -1049,13 +1054,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
       <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
@@ -1066,11 +1071,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="79"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1083,11 +1088,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="79"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="64"/>
-      <c r="B5" s="49"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1098,11 +1103,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="64"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1115,11 +1120,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="79"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1132,11 +1137,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="79"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="64"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1149,11 +1154,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="80"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="63" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="55" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1166,42 +1171,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="74">
+      <c r="G9" s="34">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="76"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="58">
+      <c r="A12" s="79">
         <v>43131</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -1215,13 +1220,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="81">
+      <c r="G12" s="44">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1236,11 +1241,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
-      <c r="B14" s="40"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1253,11 +1258,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="82"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="59"/>
-      <c r="B15" s="40"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1270,11 +1275,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="82"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1287,11 +1292,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="83"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="80"/>
+      <c r="B17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1300,13 +1305,19 @@
       <c r="D17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="32"/>
+      <c r="E17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="44">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1315,200 +1326,200 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="39"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="26"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="27"/>
       <c r="C20" s="25"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="43"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="69"/>
-      <c r="B21" s="65"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="21"/>
       <c r="D21" s="10"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="55"/>
+      <c r="G21" s="76"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
-      <c r="B22" s="65"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="22"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="77"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
-      <c r="B23" s="65"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="21"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="65"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="23"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
-      <c r="B25" s="65"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="22"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="71"/>
-      <c r="B26" s="65"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="22"/>
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="57"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="61"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="24"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="53"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="54"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="67"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="54"/>
+      <c r="G29" s="75"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
       <c r="E30" s="20"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="54"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="15"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
-      <c r="B32" s="67"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="15"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="43"/>
+      <c r="G32" s="65"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="45"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="50"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="28"/>
       <c r="D34" s="29"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
-      <c r="G34" s="46"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="73"/>
       <c r="C35" s="28"/>
       <c r="D35" s="29"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
-      <c r="G35" s="46"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
-      <c r="G36" s="46"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="50"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
-      <c r="G37" s="46"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
       <c r="F38" s="28"/>
-      <c r="G38" s="46"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="51"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
       <c r="F39" s="28"/>
-      <c r="G39" s="47"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
@@ -1516,8 +1527,8 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="35"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="15"/>
       <c r="D41" s="14"/>
       <c r="E41" s="15"/>
@@ -1525,8 +1536,8 @@
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
       <c r="E42" s="15"/>
@@ -1534,8 +1545,8 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
@@ -1543,8 +1554,8 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -1552,8 +1563,8 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="35"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1561,8 +1572,8 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1570,51 +1581,38 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="35"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="61"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="35"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="37"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="35"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="38"/>
+      <c r="F49" s="63"/>
       <c r="G49" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G2:G8"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B21:B22"/>
+  <mergeCells count="33">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="F47:F49"/>
@@ -1627,9 +1625,23 @@
     <mergeCell ref="B35:B39"/>
     <mergeCell ref="G27:G32"/>
     <mergeCell ref="G21:G26"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A2:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,46 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习反常积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习第六章，定积分的应用，第一节 定积分得元素法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习第二节的第一小节，用定积分求平面图形的面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找个读的下去的英文小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:20 - 21:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:40 - 22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22:10 - 23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before 12:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -548,12 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,6 +596,117 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -577,13 +722,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -598,121 +737,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1015,10 +1049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1036,13 +1070,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="55">
+      <c r="A2" s="79">
         <v>43130</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1054,14 +1088,14 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="69">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="30" t="s">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1071,11 +1105,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1088,11 +1122,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="42"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1103,11 +1137,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="75"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1120,11 +1154,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1137,11 +1171,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="42"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1154,11 +1188,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="55" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="79" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1171,45 +1205,45 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="34">
+      <c r="G9" s="69">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="35"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="36"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="71"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="79">
+      <c r="A12" s="33">
         <v>43131</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1220,13 +1254,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="44">
+      <c r="G12" s="37">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="80"/>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1241,11 +1275,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="45"/>
+      <c r="G13" s="77"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1258,11 +1292,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="80"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1275,11 +1309,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="80"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1292,11 +1326,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="78"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="37" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1311,260 +1345,282 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="37">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="39"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
+      <c r="A19" s="36">
+        <v>43132</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="64"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="82"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="15"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="65"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="76"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="77"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="77"/>
+      <c r="G23" s="57"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="77"/>
+      <c r="G24" s="58"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="22"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="77"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="78"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="74"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="75"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="75"/>
+      <c r="G29" s="55"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="75"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="75"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="65"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="67"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="71"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="68"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="45"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="68"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="47"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="68"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="68"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="69"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="48"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="15"/>
-      <c r="D42" s="14"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1572,8 +1628,8 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1581,56 +1637,54 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="38"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="61"/>
+      <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="62"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="63"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="15"/>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B22"/>
+  <mergeCells count="34">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="B13:B16"/>
@@ -1642,6 +1696,27 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G23:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,6 +297,14 @@
   </si>
   <si>
     <t>before 12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁滨逊漂流记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -304,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +382,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -535,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,115 +613,13 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,7 +637,13 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -737,6 +658,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,6 +671,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1054,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1049,10 +1069,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="42"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1070,10 +1090,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="79">
+      <c r="A2" s="48">
         <v>43130</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1088,13 +1108,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="28" t="s">
         <v>19</v>
       </c>
@@ -1105,11 +1125,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="75"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1122,11 +1142,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="80"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1137,11 +1157,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="75"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="80"/>
-      <c r="B6" s="79" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1154,11 +1174,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="75"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1171,11 +1191,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="80"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1188,11 +1208,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="76"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="80"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1205,42 +1225,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="69">
+      <c r="G9" s="35">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="33">
+      <c r="A12" s="56">
         <v>43131</v>
       </c>
       <c r="B12" s="29" t="s">
@@ -1254,13 +1274,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="37">
+      <c r="G12" s="45">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1275,11 +1295,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="77"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1292,11 +1312,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="77"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1309,11 +1329,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="77"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1326,11 +1346,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="78"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="38" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1345,13 +1365,13 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="45">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1362,13 +1382,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="36">
+      <c r="A19" s="30">
         <v>43132</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -1377,223 +1397,235 @@
       <c r="D19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="44"/>
+      <c r="G19" s="79">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="25" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="45"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="25" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="30"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="81"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="21"/>
       <c r="D23" s="10"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="57"/>
+      <c r="G23" s="76"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="22"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="58"/>
+      <c r="G24" s="77"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="21"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="58"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="23"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="58"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="22"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="58"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="22"/>
       <c r="D28" s="12"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="59"/>
+      <c r="G28" s="78"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="24"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="55"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="61"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="56"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="36"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
       <c r="E32" s="20"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="56"/>
+      <c r="G32" s="75"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="15"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="56"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="45"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="47"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="51"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="26"/>
       <c r="D36" s="27"/>
       <c r="E36" s="26"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="48"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
       <c r="E37" s="26"/>
       <c r="F37" s="26"/>
-      <c r="G37" s="48"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="G38" s="48"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
       <c r="F39" s="26"/>
-      <c r="G39" s="48"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
       <c r="F40" s="26"/>
-      <c r="G40" s="48"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
-      <c r="G41" s="49"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -1601,8 +1633,8 @@
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="15"/>
       <c r="D43" s="14"/>
       <c r="E43" s="15"/>
@@ -1610,8 +1642,8 @@
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="15"/>
       <c r="D44" s="14"/>
       <c r="E44" s="15"/>
@@ -1619,8 +1651,8 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -1628,8 +1660,8 @@
       <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -1637,8 +1669,8 @@
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
@@ -1646,8 +1678,8 @@
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
@@ -1655,39 +1687,52 @@
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="41"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="42"/>
+      <c r="F50" s="63"/>
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="43"/>
+      <c r="F51" s="64"/>
       <c r="G51" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="G35:G41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="E10:E11"/>
@@ -1696,27 +1741,14 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,14 +305,66 @@
   </si>
   <si>
     <t>鲁滨逊漂流记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词30个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全力写出mac_acl的改造说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:00 - 17:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:10 - 12:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下有时间就看高数，定积分求体积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:50 - 18:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成第六章，定积分的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完剩余单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20:00之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30之前</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -519,17 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -552,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,7 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
@@ -598,13 +638,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,13 +648,41 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -628,7 +691,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -637,75 +733,63 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,55 +802,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,21 +1079,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1068,11 +1104,11 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1089,14 +1125,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+    <row r="2" spans="1:7">
+      <c r="A2" s="44">
         <v>43130</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1108,14 +1144,14 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="36">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="28" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1125,11 +1161,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1142,11 +1178,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1157,11 +1193,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48" t="s">
+      <c r="G5" s="37"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="45"/>
+      <c r="B6" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1174,11 +1210,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1191,11 +1227,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1208,11 +1244,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="48" t="s">
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1225,45 +1261,45 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="35">
+      <c r="G9" s="36">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="47">
         <v>43131</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1274,13 +1310,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="45">
+      <c r="G12" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="48"/>
+      <c r="B13" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1295,11 +1331,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="39"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1312,11 +1348,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="39"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1329,11 +1365,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="40"/>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1346,11 +1382,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="38" t="s">
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="48"/>
+      <c r="B17" s="28" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1365,13 +1401,13 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="41">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="40"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="49"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1382,373 +1418,392 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="G18" s="30"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="50">
         <v>43132</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="79">
+      <c r="F19" s="14"/>
+      <c r="G19" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="25" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="80"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="25" t="s">
+      <c r="F20" s="14"/>
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="80"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="15" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="58"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="52"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="81"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="76"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="77"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="77"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="77"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="77"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="78"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="74"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="75"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="75"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="75"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="75"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="67"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="71"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="68"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="71"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="68"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="71"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="68"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="71"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="68"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="68"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="69"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="59"/>
-      <c r="C44" s="15"/>
+      <c r="G22" s="59"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="32">
+        <v>43133</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="33"/>
+      <c r="B26" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="33"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="56"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="72"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="69"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="51"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="70"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="51"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="70"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="51"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="70"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="51"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="70"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="52"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="71"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="65"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="66"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="62"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="62"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="66"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="62"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="66"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="62"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="66"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="62"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="67"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="63"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="60"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="74"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="74"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="74"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="61"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="74"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="74"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="74"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="74"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="74"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="74"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="G35:G41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="G23:G28"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="G28:G33"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="G23:G27"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="G34:G40"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,14 +357,62 @@
   </si>
   <si>
     <t>11:30之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写acl的总结了，低估了，最后还没有写完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上完成的，还有平面曲线的弧长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成ACL代码总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成阅读理解，背20个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背完剩余单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习高数第七章，第一节和第二节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +491,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -593,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,15 +686,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -652,16 +700,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +718,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -700,22 +760,13 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -733,10 +784,10 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -760,18 +811,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -779,12 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,21 +1127,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -1104,11 +1152,11 @@
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1125,14 +1173,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="44">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="31">
         <v>43130</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1144,14 +1192,14 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="37">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="24" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1161,11 +1209,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1178,11 +1226,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1193,11 +1241,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="44" t="s">
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1210,11 +1258,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="37"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="G6" s="38"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1227,11 +1275,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1244,11 +1292,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="38"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1261,45 +1309,45 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="36">
+      <c r="G9" s="37">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="47">
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="34">
         <v>43131</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1310,13 +1358,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="41">
+      <c r="G12" s="42">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="48"/>
-      <c r="B13" s="28" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="45" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1331,11 +1379,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="48"/>
-      <c r="B14" s="29"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1348,11 +1396,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="48"/>
-      <c r="B15" s="29"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1365,11 +1413,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="48"/>
-      <c r="B16" s="30"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1382,11 +1430,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="48"/>
-      <c r="B17" s="28" t="s">
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="45" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1401,13 +1449,13 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="42">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="49"/>
-      <c r="B18" s="30"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="36"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1418,13 +1466,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="50">
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="48">
         <v>43132</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1437,14 +1485,14 @@
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="57">
+      <c r="G19" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="21" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -1454,12 +1502,12 @@
         <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="21" t="s">
+      <c r="G20" s="56"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -1469,11 +1517,11 @@
         <v>70</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="58"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="51"/>
+      <c r="G21" s="56"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
@@ -1486,28 +1534,32 @@
       <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="59"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="32">
+      <c r="G22" s="57"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
         <v>43133</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31" t="s">
+      <c r="G23" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="62" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1516,26 +1568,34 @@
       <c r="D24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="56"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
+      <c r="E24" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="54"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="56"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="65" t="s">
+      <c r="E25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="64" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1544,253 +1604,263 @@
       <c r="D26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="67"/>
+      <c r="G26" s="54"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
       <c r="D27" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="56"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="72"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="48">
+        <v>43134</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="51"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="70"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="51"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="G29" s="69"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="70"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="51"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="70"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="51"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="70"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="52"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="71"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="65"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="59"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="66"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="66"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="62"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="B35" s="60"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="66"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="62"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="60"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="66"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="62"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="66"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="62"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="66"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="62"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="67"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="63"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="60"/>
-      <c r="B41" s="78"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="65"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="58"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="71"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="71"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="74"/>
-      <c r="B42" s="73"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="71"/>
+      <c r="B42" s="70"/>
       <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="74"/>
-      <c r="B43" s="73"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="71"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="74"/>
-      <c r="B44" s="73"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="71"/>
+      <c r="B44" s="70"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="74"/>
-      <c r="B45" s="73"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="71"/>
+      <c r="B45" s="70"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="74"/>
-      <c r="B46" s="73"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="71"/>
+      <c r="B46" s="70"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="72"/>
       <c r="G46" s="14"/>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="74"/>
-      <c r="B47" s="73"/>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="71"/>
+      <c r="B47" s="70"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="73"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="74"/>
-      <c r="B48" s="73"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="71"/>
+      <c r="B48" s="70"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="75"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="74"/>
-      <c r="B49" s="73"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="74"/>
-      <c r="B50" s="73"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A34:A40"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="G28:G33"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B47"/>
+  <mergeCells count="33">
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G19:G22"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="G34:G40"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A18"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G12:G16"/>
@@ -1798,12 +1868,11 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,13 +405,29 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太多了，还要花时间才行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打游戏输了，就一直打，尼玛不打LOL了，换了上单中单才赢一点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,10 +716,88 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -760,97 +854,19 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,11 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,15 +1164,15 @@
     <col min="3" max="3" width="69.875" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="46.75" customWidth="1"/>
+    <col min="6" max="6" width="54.625" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="56"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1174,10 +1190,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="31">
+      <c r="A2" s="57">
         <v>43130</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1192,13 +1208,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="37">
+      <c r="G2" s="63">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1209,11 +1225,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="38"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1226,11 +1242,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="G4" s="64"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1241,11 +1257,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="38"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1258,11 +1274,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1275,11 +1291,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="38"/>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1292,11 +1308,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="65"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1309,42 +1325,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="37">
+      <c r="G9" s="63">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="51"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="52"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="34">
+      <c r="A12" s="60">
         <v>43131</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1358,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="42">
+      <c r="G12" s="68">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="46" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1379,11 +1395,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="69"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1396,11 +1412,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1413,10 +1429,10 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="69"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="47"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -1430,11 +1446,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1449,12 +1465,12 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="68">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
+      <c r="A18" s="62"/>
       <c r="B18" s="47"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
@@ -1469,10 +1485,10 @@
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
+      <c r="A19" s="43">
         <v>43132</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1485,13 +1501,13 @@
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="55">
+      <c r="G19" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="18" t="s">
         <v>62</v>
       </c>
@@ -1502,11 +1518,11 @@
         <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="56"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
@@ -1517,11 +1533,11 @@
         <v>70</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="56"/>
+      <c r="G21" s="51"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
@@ -1534,10 +1550,10 @@
       <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="57"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="27">
+      <c r="A23" s="53">
         <v>43133</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -1553,13 +1569,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="53">
+      <c r="G23" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="54"/>
+      <c r="B24" s="36" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1574,11 +1590,11 @@
       <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="54"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="62"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
@@ -1591,11 +1607,11 @@
       <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="64" t="s">
+      <c r="A26" s="54"/>
+      <c r="B26" s="38" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1608,11 +1624,11 @@
         <v>88</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="54"/>
+      <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="65"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
@@ -1623,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="54"/>
+      <c r="G27" s="49"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="A28" s="43">
         <v>43134</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="25" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -1638,13 +1654,19 @@
       <c r="D28" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="68"/>
+      <c r="E28" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -1653,13 +1675,15 @@
       <c r="D29" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="69"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="48" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -1668,89 +1692,95 @@
       <c r="D30" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="25"/>
+      <c r="E31" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="75"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="62"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="59"/>
+      <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="63"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="60"/>
+      <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
-      <c r="B34" s="67"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="60"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="66"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="60"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="60"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="19"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="G37" s="60"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="61"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="G38" s="61"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="75"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="32"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -1758,8 +1788,8 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="71"/>
-      <c r="B40" s="70"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
@@ -1767,8 +1797,8 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="71"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
@@ -1776,8 +1806,8 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="71"/>
-      <c r="B42" s="70"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -1785,8 +1815,8 @@
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="71"/>
-      <c r="B43" s="70"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -1794,8 +1824,8 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="71"/>
-      <c r="B44" s="70"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -1803,8 +1833,8 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="71"/>
-      <c r="B45" s="70"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -1812,48 +1842,38 @@
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="71"/>
-      <c r="B46" s="70"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="72"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="71"/>
-      <c r="B47" s="70"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="73"/>
+      <c r="F47" s="30"/>
       <c r="G47" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="71"/>
-      <c r="B48" s="70"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="74"/>
+      <c r="F48" s="31"/>
       <c r="G48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G28:G31"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G19:G22"/>
@@ -1870,9 +1890,19 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G32:G38"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A32:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,38 @@
   </si>
   <si>
     <t>打游戏输了，就一直打，尼玛不打LOL了，换了上单中单才赢一点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词100个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL改造开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读英文文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -746,30 +778,21 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -777,33 +800,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -854,19 +850,49 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1169,10 +1195,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1190,10 +1216,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="57">
+      <c r="A2" s="45">
         <v>43130</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1208,13 +1234,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="51">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1225,11 +1251,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="64"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1242,11 +1268,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1257,11 +1283,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="64"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1274,11 +1300,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="64"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1291,11 +1317,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1308,11 +1334,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1325,42 +1351,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="63">
+      <c r="G9" s="51">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="73"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="60">
+      <c r="A12" s="48">
         <v>43131</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1374,13 +1400,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="68">
+      <c r="G12" s="56">
         <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="46" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="59" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1395,11 +1421,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="69"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1412,11 +1438,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1429,11 +1455,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="69"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1446,11 +1472,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="70"/>
+      <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1465,13 +1491,13 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="68">
+      <c r="G17" s="56">
         <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1482,13 +1508,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="43">
+      <c r="A19" s="40">
         <v>43132</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1501,13 +1527,13 @@
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="50">
+      <c r="G19" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="18" t="s">
         <v>62</v>
       </c>
@@ -1518,11 +1544,11 @@
         <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="51"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
@@ -1533,11 +1559,11 @@
         <v>70</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="51"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
@@ -1550,10 +1576,10 @@
       <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="71"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="53">
+      <c r="A23" s="72">
         <v>43133</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -1569,13 +1595,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="48">
+      <c r="G23" s="67">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="37" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1590,11 +1616,11 @@
       <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="49"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
@@ -1607,11 +1633,11 @@
       <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="49"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="73"/>
+      <c r="B26" s="35" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1624,11 +1650,11 @@
         <v>88</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="49"/>
+      <c r="G26" s="68"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
@@ -1639,10 +1665,10 @@
         <v>85</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="49"/>
+      <c r="G27" s="68"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43">
+      <c r="A28" s="40">
         <v>43134</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -1660,12 +1686,12 @@
       <c r="F28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="42">
+      <c r="G28" s="64">
         <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="25" t="s">
         <v>95</v>
       </c>
@@ -1679,11 +1705,11 @@
         <v>98</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="74"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="42"/>
+      <c r="B30" s="40" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -1696,11 +1722,11 @@
         <v>98</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="74"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
@@ -1713,76 +1739,96 @@
       <c r="F31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="75"/>
+      <c r="G31" s="66"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="35">
+        <v>43135</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="19"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="19" t="s">
+        <v>103</v>
+      </c>
       <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="F33" s="19"/>
       <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="19"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="D34" s="20"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
       <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="20"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
       <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="19"/>
+      <c r="C36" s="19" t="s">
+        <v>106</v>
+      </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
       <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="19"/>
+      <c r="C37" s="19" t="s">
+        <v>107</v>
+      </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="35"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -1800,7 +1846,7 @@
       <c r="A41" s="28"/>
       <c r="B41" s="26"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -1838,7 +1884,7 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,7 +1893,7 @@
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="29"/>
+      <c r="F46" s="30"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1856,17 +1902,8 @@
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="30"/>
+      <c r="F47" s="31"/>
       <c r="G47" s="14"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -1878,6 +1915,7 @@
     <mergeCell ref="G23:G27"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
@@ -1889,20 +1927,19 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="G32:G38"/>
-    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G32:G37"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A32:A38"/>
-    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,26 @@
   </si>
   <si>
     <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不够，被比赛吸引了，三路破翻盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换成看第七章第一节，微分方程了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -751,55 +771,64 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
@@ -826,73 +855,64 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,7 +1200,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,10 +1215,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="47"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1216,10 +1236,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="45">
+      <c r="A2" s="48">
         <v>43130</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1234,13 +1254,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="31">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1251,11 +1271,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1268,11 +1288,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1283,11 +1303,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="52"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1300,11 +1320,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1317,11 +1337,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1334,11 +1354,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="53"/>
+      <c r="G8" s="55"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="45" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1351,42 +1371,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="51">
+      <c r="G9" s="31">
         <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="48">
+      <c r="A12" s="51">
         <v>43131</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1405,8 +1425,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="59" t="s">
+      <c r="A13" s="52"/>
+      <c r="B13" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1424,8 +1444,8 @@
       <c r="G13" s="57"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1441,8 +1461,8 @@
       <c r="G14" s="57"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1458,8 +1478,8 @@
       <c r="G15" s="57"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1475,8 +1495,8 @@
       <c r="G16" s="58"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="37" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1496,8 +1516,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1508,13 +1528,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="40">
+      <c r="A19" s="26">
         <v>43132</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1527,13 +1547,13 @@
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="69">
+      <c r="G19" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="18" t="s">
         <v>62</v>
       </c>
@@ -1544,11 +1564,11 @@
         <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="70"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
@@ -1559,11 +1579,11 @@
         <v>70</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="70"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
-      <c r="B22" s="42"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
@@ -1576,10 +1596,10 @@
       <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="71"/>
+      <c r="G22" s="43"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="72">
+      <c r="A23" s="44">
         <v>43133</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -1595,13 +1615,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="67">
+      <c r="G23" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="73"/>
-      <c r="B24" s="37" t="s">
+      <c r="A24" s="45"/>
+      <c r="B24" s="64" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1616,11 +1636,11 @@
       <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="68"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="37"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
@@ -1633,11 +1653,11 @@
       <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="68"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="73"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="62" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1650,11 +1670,11 @@
         <v>88</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="68"/>
+      <c r="G26" s="40"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="73"/>
-      <c r="B27" s="36"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
@@ -1665,10 +1685,10 @@
         <v>85</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="68"/>
+      <c r="G27" s="40"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="40">
+      <c r="A28" s="26">
         <v>43134</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -1686,12 +1706,12 @@
       <c r="F28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="64">
+      <c r="G28" s="34">
         <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="25" t="s">
         <v>95</v>
       </c>
@@ -1705,11 +1725,11 @@
         <v>98</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="65"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="40" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -1722,11 +1742,11 @@
         <v>98</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="65"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
@@ -1739,26 +1759,30 @@
       <c r="F31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="66"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="35">
+      <c r="A32" s="62">
         <v>43135</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="62" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="F32" s="19"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="60">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="19" t="s">
         <v>103</v>
       </c>
@@ -1767,57 +1791,71 @@
         <v>108</v>
       </c>
       <c r="F33" s="19"/>
-      <c r="G33" s="34"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="38"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="63"/>
       <c r="C34" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="34"/>
+      <c r="E34" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="66" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="34"/>
+      <c r="E35" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="38"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="34"/>
+      <c r="E36" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="38"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="19" t="s">
+        <v>109</v>
+      </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="34"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -1825,8 +1863,8 @@
       <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="26"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="67"/>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
       <c r="E39" s="14"/>
@@ -1834,8 +1872,8 @@
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="26"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
       <c r="E40" s="14"/>
@@ -1843,8 +1881,8 @@
       <c r="G40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -1852,8 +1890,8 @@
       <c r="G41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="26"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -1861,8 +1899,8 @@
       <c r="G42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="26"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
@@ -1870,8 +1908,8 @@
       <c r="G43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="67"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -1879,43 +1917,47 @@
       <c r="G44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="67"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="29"/>
+      <c r="F45" s="70"/>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="67"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="30"/>
+      <c r="F46" s="71"/>
       <c r="G46" s="14"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="67"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="31"/>
+      <c r="F47" s="72"/>
       <c r="G47" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
@@ -1927,19 +1969,15 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xueyu/plan/周计划-2018-01-30.xlsx
+++ b/Personal/xueyu/plan/周计划-2018-01-30.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="116">
   <si>
     <t>今日计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,14 +473,22 @@
   </si>
   <si>
     <t>时间不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周总体完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总体及格，非常蛋疼，继续努力，坚持不懈，下周要超过百分之六十</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,14 +553,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="3"/>
@@ -718,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -771,13 +771,70 @@
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -786,7 +843,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,25 +876,19 @@
     <xf numFmtId="9" fontId="7" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -831,89 +897,11 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1189,36 +1177,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="69.875" customWidth="1"/>
+    <col min="3" max="3" width="68.25" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="54.625" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="57.875" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1235,11 +1223,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="48">
+    <row r="2" spans="1:7">
+      <c r="A2" s="39">
         <v>43130</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -1254,13 +1242,13 @@
       <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="45">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
+    <row r="3" spans="1:7">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="21" t="s">
         <v>19</v>
       </c>
@@ -1271,11 +1259,11 @@
         <v>25</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="54"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1288,11 +1276,11 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1303,11 +1291,11 @@
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48" t="s">
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="40"/>
+      <c r="B6" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1320,11 +1308,11 @@
         <v>27</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1337,11 +1325,11 @@
       <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1354,11 +1342,11 @@
       <c r="F8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="48" t="s">
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="40"/>
+      <c r="B9" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1371,42 +1359,42 @@
         <v>25</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="31">
+      <c r="G9" s="45">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="51">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="57"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="42">
         <v>43131</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -1420,13 +1408,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="56">
+      <c r="G12" s="50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="37" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="43"/>
+      <c r="B13" s="53" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1441,11 +1429,11 @@
       <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="57"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="59"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="43"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1458,11 +1446,11 @@
       <c r="F14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="59"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="5" t="s">
         <v>43</v>
       </c>
@@ -1475,11 +1463,11 @@
       <c r="F15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="57"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="38"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="43"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1492,11 +1480,11 @@
       <c r="F16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="58"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="37" t="s">
+      <c r="G16" s="52"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="43"/>
+      <c r="B17" s="53" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1511,13 +1499,13 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="50">
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="38"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="44"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
@@ -1528,13 +1516,13 @@
         <v>64</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26">
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="34">
         <v>43132</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="34" t="s">
         <v>60</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -1547,13 +1535,13 @@
         <v>70</v>
       </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="41">
+      <c r="G19" s="63">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="18" t="s">
         <v>62</v>
       </c>
@@ -1564,11 +1552,11 @@
         <v>70</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
+      <c r="G20" s="64"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="18" t="s">
         <v>63</v>
       </c>
@@ -1579,11 +1567,11 @@
         <v>70</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="27"/>
+      <c r="G21" s="64"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="14" t="s">
         <v>65</v>
       </c>
@@ -1596,10 +1584,10 @@
       <c r="F22" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="44">
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="66">
         <v>43133</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -1615,13 +1603,13 @@
         <v>85</v>
       </c>
       <c r="F23" s="10"/>
-      <c r="G23" s="39">
+      <c r="G23" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="64" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="67"/>
+      <c r="B24" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1636,11 +1624,11 @@
       <c r="F24" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="40"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="64"/>
+      <c r="G24" s="62"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="67"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="1" t="s">
         <v>78</v>
       </c>
@@ -1653,11 +1641,11 @@
       <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="62" t="s">
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="67"/>
+      <c r="B26" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1670,11 +1658,11 @@
         <v>88</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="63"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="67"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="16" t="s">
         <v>81</v>
       </c>
@@ -1685,10 +1673,10 @@
         <v>85</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="34">
         <v>43134</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -1706,12 +1694,12 @@
       <c r="F28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="58">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="36"/>
       <c r="B29" s="25" t="s">
         <v>95</v>
       </c>
@@ -1725,11 +1713,11 @@
         <v>98</v>
       </c>
       <c r="F29" s="14"/>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="26" t="s">
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="36"/>
+      <c r="B30" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -1742,11 +1730,11 @@
         <v>98</v>
       </c>
       <c r="F30" s="14"/>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
+      <c r="G30" s="59"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="14" t="s">
         <v>94</v>
       </c>
@@ -1759,13 +1747,13 @@
       <c r="F31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="62">
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="29">
         <v>43135</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="29" t="s">
         <v>101</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -1776,13 +1764,13 @@
         <v>109</v>
       </c>
       <c r="F32" s="19"/>
-      <c r="G32" s="60">
+      <c r="G32" s="27">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="19" t="s">
         <v>103</v>
       </c>
@@ -1791,11 +1779,11 @@
         <v>108</v>
       </c>
       <c r="F33" s="19"/>
-      <c r="G33" s="61"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="63"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="19" t="s">
         <v>104</v>
       </c>
@@ -1806,11 +1794,11 @@
       <c r="F34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66" t="s">
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -1823,11 +1811,11 @@
       <c r="F35" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="61"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="32"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="19" t="s">
         <v>106</v>
       </c>
@@ -1838,11 +1826,11 @@
       <c r="F36" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="61"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="61"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="32"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="19" t="s">
         <v>107</v>
       </c>
@@ -1851,113 +1839,35 @@
         <v>109</v>
       </c>
       <c r="F37" s="19"/>
-      <c r="G37" s="61"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
-      <c r="B38" s="73"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A38" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="26"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="69"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="69"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="69"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="69"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="14"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="68">
+        <f>AVERAGE(G2:G37)</f>
+        <v>0.6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B32:B34"/>
+  <mergeCells count="28">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
@@ -1969,15 +1879,14 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
